--- a/src/main/resources/excel/StockResource.xlsx
+++ b/src/main/resources/excel/StockResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\hellost\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6262A0C1-61DA-4CB8-B52C-A492EEA53809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133E31B0-F54C-40E3-B5E1-49703EC3CA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小苏苏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>隆爷爷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -56,6 +52,10 @@
   </si>
   <si>
     <t>股票代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小苏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +416,7 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -427,7 +427,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -472,7 +472,7 @@
         <v>601952</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -485,10 +485,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
